--- a/biology/Botanique/Campagne_de_Bacchus_de_Carpentras/Campagne_de_Bacchus_de_Carpentras.xlsx
+++ b/biology/Botanique/Campagne_de_Bacchus_de_Carpentras/Campagne_de_Bacchus_de_Carpentras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La campagne de Bacchus, appelé maintenant le Château de Bacchus, est une demeure, inscrite aux monuments historiques depuis 2003, située dans le hameau de Serres, commune de Carpentras (Vaucluse), sur la route du Barroux.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La campagne de Bacchus fut successivement la propriété rurale de deux familles, les Orléans la Motte co-seigneurs de Venasque et Saint-Didier, puis les Bernard de Rémond Mormoiron, marquis de Modène. Les premiers travaux datent de la première moitié du XVIIe siècle. Un siècle plus tard, les pièces du rez-de-chaussée, ainsi que la chapelle et certaines chambres sont remaniées. Il existe un plan des jardins datant de 1781[1]. Le château et ses dépendances sont inscrits au titre des monuments historiques depuis le 4 juillet 2003[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La campagne de Bacchus fut successivement la propriété rurale de deux familles, les Orléans la Motte co-seigneurs de Venasque et Saint-Didier, puis les Bernard de Rémond Mormoiron, marquis de Modène. Les premiers travaux datent de la première moitié du XVIIe siècle. Un siècle plus tard, les pièces du rez-de-chaussée, ainsi que la chapelle et certaines chambres sont remaniées. Il existe un plan des jardins datant de 1781. Le château et ses dépendances sont inscrits au titre des monuments historiques depuis le 4 juillet 2003.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,10 +584,12 @@
           <t>Activités économiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce domaine vinicole produit des vins de l'AOC Ventoux, en culture biologique depuis 2009. Quatre cépages sont utilisés : Grenache, Syrah, Cinsault et Carignan[3]. Le domaine propose 9 cuvée différentes : Château de Bacchus rouge, blanc et rosé, B de Bacchus rouge et rosé, Chapelle de Bacchus rouge et Le Bacchus rouge, blanc et rosé.
-Le domaine est également producteur d'huile d'olive[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce domaine vinicole produit des vins de l'AOC Ventoux, en culture biologique depuis 2009. Quatre cépages sont utilisés : Grenache, Syrah, Cinsault et Carignan. Le domaine propose 9 cuvée différentes : Château de Bacchus rouge, blanc et rosé, B de Bacchus rouge et rosé, Chapelle de Bacchus rouge et Le Bacchus rouge, blanc et rosé.
+Le domaine est également producteur d'huile d'olive.
 </t>
         </is>
       </c>
